--- a/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
+++ b/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 28 de septiembre - 3 de octubre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9740B044-8398-495B-822F-1919E534A27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951B85C-2CAA-4191-AC70-3135EBE06F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>SEMANA 6</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Revision de adelantos semana 5</t>
+  </si>
+  <si>
+    <t>Revision de diagramas y asignacion de tareas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartir ideas acerca de el diseño </t>
+  </si>
+  <si>
+    <t>Incio de diapostivas para el jueves</t>
+  </si>
+  <si>
+    <t>Parcial al dia siguiente</t>
   </si>
 </sst>
 </file>
@@ -719,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,7 +746,7 @@
     <col min="1" max="1" width="26.453125" customWidth="1"/>
     <col min="2" max="2" width="24.36328125" customWidth="1"/>
     <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="23.36328125" customWidth="1"/>
     <col min="6" max="6" width="23.08984375" customWidth="1"/>
     <col min="7" max="7" width="22.1796875" customWidth="1"/>
@@ -805,8 +823,12 @@
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
@@ -816,8 +838,12 @@
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
@@ -827,8 +853,12 @@
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
@@ -840,8 +870,12 @@
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
@@ -851,8 +885,12 @@
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
@@ -862,8 +900,12 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>

--- a/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
+++ b/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 28 de septiembre - 3 de octubre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951B85C-2CAA-4191-AC70-3135EBE06F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BC194-6A3C-45AA-AA45-38A977B3A27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>Parcial al dia siguiente</t>
+  </si>
+  <si>
+    <t>Reunion con profesor</t>
+  </si>
+  <si>
+    <t>Boceto diagramas estructura</t>
+  </si>
+  <si>
+    <t>Reunion compañera mariana</t>
+  </si>
+  <si>
+    <t>Reunion semanal grupal</t>
+  </si>
+  <si>
+    <t>Reunion grupal</t>
   </si>
 </sst>
 </file>
@@ -738,7 +753,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,7 +762,7 @@
     <col min="2" max="2" width="24.36328125" customWidth="1"/>
     <col min="3" max="3" width="27.54296875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" customWidth="1"/>
     <col min="6" max="6" width="23.08984375" customWidth="1"/>
     <col min="7" max="7" width="22.1796875" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" customWidth="1"/>
@@ -829,9 +844,15 @@
       <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
@@ -844,9 +865,15 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
@@ -859,9 +886,15 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
@@ -876,9 +909,15 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
@@ -891,9 +930,15 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
@@ -906,9 +951,15 @@
       <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">

--- a/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
+++ b/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
@@ -5,35 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 28 de septiembre - 3 de octubre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 28 de septiembre - 3 de octubre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BC194-6A3C-45AA-AA45-38A977B3A27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2011FDE1-7DC0-428A-8BEE-B98AE19EB5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -137,6 +129,24 @@
   </si>
   <si>
     <t>Reunion grupal</t>
+  </si>
+  <si>
+    <t>Entrega de EDAED</t>
+  </si>
+  <si>
+    <t>Estaba fuera de casa</t>
+  </si>
+  <si>
+    <t>Diagrama de bloques internos con el señor Guille</t>
+  </si>
+  <si>
+    <t>Se terminó el diagrama con la explicación de Santiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama de parámetros </t>
+  </si>
+  <si>
+    <t>Diagrama de parámetros</t>
   </si>
 </sst>
 </file>
@@ -752,29 +762,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="4.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -792,7 +802,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -808,7 +818,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -831,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -854,7 +864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -875,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -896,7 +906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -919,7 +929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -940,7 +950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -961,42 +971,72 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -1009,7 +1049,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -1020,7 +1060,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -1031,7 +1071,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1084,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -1055,7 +1095,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
+++ b/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 28 de septiembre - 3 de octubre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 28 de septiembre - 3 de octubre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BC194-6A3C-45AA-AA45-38A977B3A27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28DB03C-C30D-47C6-909F-51C7E85E16E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Reunion grupal</t>
+  </si>
+  <si>
+    <t>Compartir ideas para realizacion de dIagramas</t>
+  </si>
+  <si>
+    <t>falta de claridad en caso de facturación</t>
   </si>
 </sst>
 </file>
@@ -752,29 +758,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="4.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -792,7 +798,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -808,7 +814,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -831,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -854,7 +860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -875,7 +881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -896,7 +902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -919,7 +925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -940,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -961,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -974,7 +980,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -985,7 +991,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -996,42 +1002,72 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1080,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -1055,7 +1091,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
+++ b/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 28 de septiembre - 3 de octubre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28DB03C-C30D-47C6-909F-51C7E85E16E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F294A-5E68-4F6E-8A16-8F02B47F6098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>

--- a/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
+++ b/Semana 28 de septiembre - 3 de octubre/Stand_Up_Meeitng_Week_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 28 de septiembre - 3 de octubre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 28 de septiembre - 3 de octubre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F294A-5E68-4F6E-8A16-8F02B47F6098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E8FB8F-8D07-45EB-A9DA-7C929062D262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="264" yWindow="4260" windowWidth="21348" windowHeight="8100" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>falta de claridad en caso de facturación</t>
+  </si>
+  <si>
+    <t>Compartir ideas</t>
   </si>
 </sst>
 </file>
@@ -758,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,33 +1077,63 @@
       <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
